--- a/biology/Zoologie/Chamoisé_fascié/Chamoisé_fascié.xlsx
+++ b/biology/Zoologie/Chamoisé_fascié/Chamoisé_fascié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chamois%C3%A9_fasci%C3%A9</t>
+          <t>Chamoisé_fascié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oeneis norna
 Le Chamoisé fascié (Oeneis norma) est une espèce d'insectes lépidoptères (papillons) appartenant à la famille des Nymphalidae à la sous-famille des Satyrinae et au genre Oeneis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chamois%C3%A9_fasci%C3%A9</t>
+          <t>Chamoisé_fascié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,49 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été nommée Oeneis norma par Carl Peter Thunberg en 1791.
-Synonymes : Papilio normaa Thunberg, 1791;Chionobas daura Strecker, 1894[1].
-Sous-espèces
-Oeneis norna norma
+Synonymes : Papilio normaa Thunberg, 1791;Chionobas daura Strecker, 1894.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chamoisé_fascié</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamois%C3%A9_fasci%C3%A9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Oeneis norna norma
 Oeneis norna altaica Elwes, 1899 ;
 Oeneis norna arethusoides Lukhtanov, 1989 ;
 Oeneis norna asamana Matsumura, 1919 ;
@@ -525,42 +574,7 @@
 Oeneis norna rosovi Kurentzov, 1970 ;
 Oeneis norna sugitanii Shirôzu, 1952 ;
 Oeneis norna tshukota Korshunov, 1998 ;
-Oeneis norna tundra A. Bang-Haas, 1912 [1].
-Noms vernaculaires
-Le Chamoisé fascié se nomme Norse Grayling en anglais[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chamois%C3%A9_fasci%C3%A9</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chamois%C3%A9_fasci%C3%A9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le Chamoisé fascié est de couleur marron clair doré avec une bande submarginale plus claire marquée d'un ocelle foncé à l'apex, parfois seul parfois accompagné, dans la bande submarginale plus claire aux antérieures et aux postérieures.
-Le revers des antérieures est semblable, avec un à trois ocelles pupillés de blanc, celui des postérieures est marbré de gris ou de brun.
-Chenille</t>
+Oeneis norna tundra A. Bang-Haas, 1912 .</t>
         </is>
       </c>
     </row>
@@ -570,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chamois%C3%A9_fasci%C3%A9</t>
+          <t>Chamoisé_fascié</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,16 +599,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération entre mi-juin et la mi-juillet[2].
-Le développement larvaire nécessite deux cycles saisonniers.
-Plantes hôtes
-Sa plante hôte sont nombreuses, des Carex mais aussi  Poa alpina et Phleum pratense [2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chamoisé fascié se nomme Norse Grayling en anglais.
 </t>
         </is>
       </c>
@@ -605,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chamois%C3%A9_fasci%C3%A9</t>
+          <t>Chamoisé_fascié</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,17 +636,198 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chamoisé fascié est de couleur marron clair doré avec une bande submarginale plus claire marquée d'un ocelle foncé à l'apex, parfois seul parfois accompagné, dans la bande submarginale plus claire aux antérieures et aux postérieures.
+Le revers des antérieures est semblable, avec un à trois ocelles pupillés de blanc, celui des postérieures est marbré de gris ou de brun.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chamoisé_fascié</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamois%C3%A9_fasci%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération entre mi-juin et la mi-juillet.
+Le développement larvaire nécessite deux cycles saisonniers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chamoisé_fascié</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamois%C3%A9_fasci%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa plante hôte sont nombreuses, des Carex mais aussi  Poa alpina et Phleum pratense .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chamoisé_fascié</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamois%C3%A9_fasci%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Chamoisé fascié est un lépidoptère présent dans tout le nord de l'Eurasie Scandinavie, Oural, Sibérie, Altaï et Japon[2].
-En Europe il est présent en Norvège du 62°N au 70°N, et dans le nord-ouest de la Suède  et de la Finlande[2].
-Biotope
-Elle réside près de marécages et des tourbières.
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chamoisé fascié est un lépidoptère présent dans tout le nord de l'Eurasie Scandinavie, Oural, Sibérie, Altaï et Japon.
+En Europe il est présent en Norvège du 62°N au 70°N, et dans le nord-ouest de la Suède  et de la Finlande.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chamoisé_fascié</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamois%C3%A9_fasci%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle réside près de marécages et des tourbières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chamoisé_fascié</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamois%C3%A9_fasci%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
